--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Dropbox\masatomiShare\git\UiPath-OC-Hands-on2_PutQueue\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D1FB76-FABE-4895-AD2D-F9B0B2FD6F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFF918-ED67-4F43-B3EE-B0FDD5236B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="24555" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="17355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>mailQueue1</t>
+    <t>mailQueue</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
